--- a/public/assets/berkas/managerial/managerial.xlsx
+++ b/public/assets/berkas/managerial/managerial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atonergii\public\assets\berkas\managerial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0440D18D-07D8-4834-9608-D9B20ECDD88E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2D054B-438B-4DA5-A7E8-6196A7226821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{67668A15-107E-4326-9338-F10F4B880332}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Pin</t>
   </si>
@@ -81,20 +81,50 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total Gaji Netto</t>
-  </si>
-  <si>
-    <t>Andriyanto</t>
-  </si>
-  <si>
     <t>Aktif</t>
+  </si>
+  <si>
+    <t>Dedik Prawiryo</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Keuangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>Insentif Peforma</t>
+  </si>
+  <si>
+    <t>Bonus KPI</t>
+  </si>
+  <si>
+    <t>Bonus Peforma Perusahaan</t>
+  </si>
+  <si>
+    <t>Bonus Loyalitas</t>
+  </si>
+  <si>
+    <t>Potongan Disiplin Kerja</t>
+  </si>
+  <si>
+    <t>Kasbon</t>
+  </si>
+  <si>
+    <t>Total Gaji Netto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +140,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,15 +163,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{853A317A-D29F-4862-8D52-D780BA788990}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4B11B2-75BB-4555-9532-5D9D6A9171BD}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +496,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,42 +543,69 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>4290523805</v>
+        <v>6150492881</v>
       </c>
       <c r="I2">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="J2">
-        <v>525000</v>
+        <v>440000</v>
       </c>
       <c r="K2">
-        <v>4200000</v>
+        <v>330000</v>
       </c>
       <c r="L2">
         <v>100000</v>
@@ -556,17 +619,22 @@
       <c r="O2">
         <v>2982850</v>
       </c>
-      <c r="P2">
+      <c r="U2">
         <v>45000</v>
       </c>
-      <c r="Q2">
+      <c r="V2">
         <v>71549</v>
       </c>
-      <c r="R2">
+      <c r="W2">
         <v>165000</v>
       </c>
-      <c r="S2">
+      <c r="Z2">
         <v>7491301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
